--- a/Assignments/assignment_4/assignment_4_testcase.xlsx
+++ b/Assignments/assignment_4/assignment_4_testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Test case</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual status</t>
   </si>
   <si>
     <t xml:space="preserve">Is AT</t>
@@ -60,10 +63,10 @@
 3.Page should show text "You don't have any todos"</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>TC-002</t>
@@ -266,8 +269,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,18 +284,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,7 +1144,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1145,8 +1155,8 @@
     <col customWidth="1" min="3" max="3" width="40.421875"/>
     <col customWidth="1" min="4" max="4" width="52.8515625"/>
     <col customWidth="1" min="5" max="5" width="32.7109375"/>
-    <col customWidth="1" min="6" max="6" width="21.57421875"/>
-    <col customWidth="1" min="9" max="9" width="32.421875"/>
+    <col customWidth="1" min="6" max="7" width="21.57421875"/>
+    <col customWidth="1" min="10" max="10" width="32.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1168,7 +1178,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1177,179 +1187,201 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="276.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="274.10000000000002" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="376.10000000000002" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="271.10000000000002" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="160.5" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" ht="192.34999999999999" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" ht="192.34999999999999" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
